--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randymay/clients/blaazin/projects/bdat-mrp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24C54BF-DC04-DB48-B9A1-D95A0F3DD720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B5D59-2684-4445-B0D4-64FBA061A036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>705-309-7432</t>
   </si>
   <si>
-    <t>Custom Software Development</t>
-  </si>
-  <si>
     <t>These are super awesome benefits. Don't miss out!!</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Blaazin Software Consulting, Inc.</t>
+  </si>
+  <si>
+    <t>Telecommunications and Networking</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -983,7 +983,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1010,16 +1010,16 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
